--- a/resources/export_templates/backend/user.xlsx
+++ b/resources/export_templates/backend/user.xlsx
@@ -19,41 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Ngày: 25/07/2018</t>
-  </si>
-  <si>
-    <t>Chữ Ký Giám Đốc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>agdsadgga</t>
   </si>
   <si>
-    <t>Tổng số nhân viên :</t>
-  </si>
-  <si>
-    <t>DANH SÁCH NHÂN VIÊN Tháng 07/2018</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH AtMarkCafe Việt Nam</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>hÃ²a</t>
   </si>
   <si>
@@ -73,6 +46,31 @@
   </si>
   <si>
     <t>ok@ok.com</t>
+  </si>
+  <si>
+    <t>会社  AtMarkCafe ベトナム</t>
+  </si>
+  <si>
+    <t>受信者リスト 月 07/2018</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>電子メール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+アドレス</t>
+  </si>
+  <si>
+    <t>エグゼクティブシグネチャー</t>
+  </si>
+  <si>
+    <t>スタッフ全員 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日: </t>
   </si>
 </sst>
 </file>
@@ -82,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +145,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -274,7 +279,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +310,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -607,27 +630,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F2:S18"/>
+  <dimension ref="F2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:19" ht="26.25">
       <c r="F2" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -639,31 +663,32 @@
       <c r="N2" s="1"/>
     </row>
     <row r="5" spans="6:19" ht="23.25">
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="5"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="7" spans="6:19">
+    <row r="7" spans="6:19" ht="30">
       <c r="G7" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
@@ -672,17 +697,15 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="8">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
@@ -691,13 +714,13 @@
         <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
@@ -708,10 +731,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>123456</v>
@@ -720,38 +743,51 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="14" spans="6:19">
-      <c r="M14" s="3" t="s">
+    <row r="15" spans="6:19">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="19" spans="13:15">
+      <c r="M19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="4">
+        <f>COUNT(G8:G18)</f>
         <v>3</v>
       </c>
-      <c r="N14" s="4">
-        <f>COUNT(G7:G10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="6:19">
-      <c r="N16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="13:15">
-      <c r="N17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="13:15">
-      <c r="M18" t="s">
+    </row>
+    <row r="21" spans="13:15">
+      <c r="N21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="13:15">
+      <c r="N22" s="12" t="s">
         <v>0</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="13:15">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="13:15">
+      <c r="M24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="16">
+        <f ca="1">NOW()</f>
+        <v>43306.489094444441</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G7:M7"/>
-  <mergeCells count="3">
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
+  <mergeCells count="5">
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/export_templates/backend/user.xlsx
+++ b/resources/export_templates/backend/user.xlsx
@@ -24,9 +24,6 @@
     <t>agdsadgga</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>hÃ²a</t>
   </si>
   <si>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t xml:space="preserve">日: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+キー</t>
   </si>
 </sst>
 </file>
@@ -295,39 +296,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -633,7 +634,7 @@
   <dimension ref="F2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,43 +651,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:19" ht="26.25">
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="5" spans="6:19" ht="23.25">
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="5" spans="6:19" ht="23.25">
-      <c r="F5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
     <row r="7" spans="6:19" ht="30">
-      <c r="G7" s="6" t="s">
-        <v>1</v>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>13</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="10"/>
@@ -697,13 +698,13 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
@@ -714,13 +715,13 @@
         <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
@@ -731,10 +732,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>123456</v>
@@ -744,11 +745,11 @@
       <c r="M10" s="9"/>
     </row>
     <row r="15" spans="6:19">
-      <c r="F15" s="17"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="19" spans="13:15">
-      <c r="M19" s="23" t="s">
-        <v>15</v>
+      <c r="M19" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="N19" s="4">
         <f>COUNT(G8:G18)</f>
@@ -756,28 +757,28 @@
       </c>
     </row>
     <row r="21" spans="13:15">
-      <c r="N21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="21"/>
+      <c r="N21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="13:15">
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="12"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="13:15">
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="13:15">
-      <c r="M24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="16">
+      <c r="M24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="11">
         <f ca="1">NOW()</f>
-        <v>43306.489094444441</v>
+        <v>43306.685051157408</v>
       </c>
     </row>
   </sheetData>

--- a/resources/export_templates/backend/user.xlsx
+++ b/resources/export_templates/backend/user.xlsx
@@ -8,11 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$7:$M$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$7:$L$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -24,9 +22,6 @@
     <t>agdsadgga</t>
   </si>
   <si>
-    <t>hÃ²a</t>
-  </si>
-  <si>
     <t>nvanhoa121@gmail.com</t>
   </si>
   <si>
@@ -49,9 +44,6 @@
   </si>
   <si>
     <t>受信者リスト 月 07/2018</t>
-  </si>
-  <si>
-    <t>名前</t>
   </si>
   <si>
     <t>電子メール</t>
@@ -72,6 +64,13 @@
   <si>
     <t xml:space="preserve">
 キー</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+名前</t>
   </si>
 </sst>
 </file>
@@ -274,11 +273,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -291,7 +291,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -305,12 +304,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -323,18 +323,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F2:S24"/>
+  <dimension ref="F2:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +651,7 @@
   <sheetData>
     <row r="2" spans="6:19" ht="26.25">
       <c r="F2" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -664,38 +663,43 @@
       <c r="N2" s="1"/>
     </row>
     <row r="5" spans="6:19" ht="23.25">
-      <c r="F5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="5"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
     <row r="7" spans="6:19" ht="30">
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="6:19">
-      <c r="G8" s="3">
+      <c r="F8" s="16">
         <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>1</v>
@@ -703,118 +707,93 @@
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="6:19">
+      <c r="F9" s="3">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="6:19">
-      <c r="G9" s="3">
-        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="6:19">
+      <c r="F10" s="3">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="6:19">
-      <c r="G10" s="3">
-        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
         <v>123456</v>
       </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="15" spans="6:19">
-      <c r="F15" s="12"/>
-    </row>
-    <row r="19" spans="13:15">
-      <c r="M19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="4">
-        <f>COUNT(G8:G18)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="13:15">
-      <c r="N21" s="16" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="21" spans="13:15" ht="15" customHeight="1"/>
+    <row r="23" spans="13:15">
+      <c r="M23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4">
+        <f>COUNT(G8:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="25" spans="13:15">
+      <c r="N25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="13:15">
+      <c r="N26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="28" spans="13:15">
+      <c r="M28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="13:15">
-      <c r="N22" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="13:15">
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-    </row>
-    <row r="24" spans="13:15">
-      <c r="M24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="N28" s="10">
         <f ca="1">NOW()</f>
-        <v>43306.685051157408</v>
+        <v>43308.66789733796</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G7:M7"/>
-  <mergeCells count="5">
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
+  <mergeCells count="4">
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="N23:O23"/>
     <mergeCell ref="F5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>